--- a/data/trans_bre/P25A_N_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_N_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>119,25%</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>127,47%</t>
+          <t>166,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>74,1%</t>
+          <t>163,58%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>109,07%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>86,13%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 10,97</t>
+          <t>2,55; 13,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 11,94</t>
+          <t>2,33; 14,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 9,62</t>
+          <t>1,28; 13,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,67; 275,25</t>
+          <t>1,31; 18,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,92; 294,58</t>
+          <t>19,6; 418,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 201,93</t>
+          <t>21,13; 420,11</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11,13; 294,64</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5,37; 221,33</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,78</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>60,46%</t>
+          <t>11,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>131,37%</t>
+          <t>-5,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>148,59%</t>
+          <t>62,64%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>96,26%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>86,36%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 12,29</t>
+          <t>-8,05; 6,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 12,32</t>
+          <t>-2,13; 11,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 15,73</t>
+          <t>-1,48; 15,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 207,31</t>
+          <t>1,38; 26,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,07; 392,33</t>
+          <t>-55,71; 89,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,94; 369,87</t>
+          <t>-28,8; 251,34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-22,56; 334,42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 272,63</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-11,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,49</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,32%</t>
+          <t>12,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>-68,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>122,5%</t>
+          <t>59,64%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>28,3%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>228,93%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 9,28</t>
+          <t>-31,68; 4,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 13,95</t>
+          <t>-9,22; 22,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 20,14</t>
+          <t>-12,4; 15,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-70,73; 155,77</t>
+          <t>-2,86; 28,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-56,0; 238,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,93; 712,36</t>
+          <t>-70,79; 993,62</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-72,65; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>104,52%</t>
+          <t>30,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>107,33%</t>
+          <t>101,98%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>94,48%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>94,27%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,63</t>
+          <t>-2,06; 6,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 9,76</t>
+          <t>1,97; 10,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,01</t>
+          <t>2,39; 11,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,07; 138,75</t>
+          <t>4,67; 18,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,47; 200,33</t>
+          <t>-18,65; 102,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,88; 205,25</t>
+          <t>22,47; 233,65</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20,92; 206,53</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31,66; 221,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_N_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_N_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,86</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,58</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,98</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>166,81%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>163,58%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>109,07%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>86,13%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>8.493703928566399</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>8.990255061409187</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.18374329282772</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>10.62163818658984</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.761751606274673</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.710235504035461</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.072620911879558</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.9519003270126927</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,55; 13,78</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,33; 14,3</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 13,09</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 18,06</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>19,6; 418,33</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>21,13; 420,11</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>11,13; 294,64</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>5,37; 221,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.632066415597249</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.376935978335064</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.202277889712033</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.797554396155771</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.2455235247488723</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.2395597014728595</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.09606263330884564</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.08974336527649915</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.70696589339592</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.54408310045145</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.54117386880529</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>19.62993773412807</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>4.480287530555203</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>4.49618009029259</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.873114642249444</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.475358870478452</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,7</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>11,6</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-5,17%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>62,64%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>96,26%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>86,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,05; 6,08</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 11,86</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 15,42</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 26,57</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-55,71; 89,59</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-28,8; 251,34</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-22,56; 334,42</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-0,11; 272,63</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.754082545055702</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.37465676000035</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.667293248348361</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>11.63235661357873</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1480388696881127</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.6748013611479486</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.9152950305458601</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9045258427299272</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-11,52</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,26</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12,6</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-68,02%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>59,64%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>28,3%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>228,93%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.01799446256894</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.541109764716551</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.267493912504394</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1.042118652284334</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.6651261755096689</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.282502766893288</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2212630017257653</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.005103208012734524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-31,68; 4,88</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,22; 22,06</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,4; 15,66</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 28,08</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-70,79; 993,62</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-72,65; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.47489990726574</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.32513925350065</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.03496175268942</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>24.47037020962717</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.7076441313953487</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.714252561465502</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.517986725481678</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.544240889008766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,8</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,09</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>10,96</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>30,98%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>101,98%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>94,48%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>94,27%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-9.547234078319033</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.62532945527734</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.693535434404495</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>12.79505666880428</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.6331569976649414</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4884033038637018</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4971853377731882</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.461158183461676</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 6,75</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,97; 10,85</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 11,41</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,67; 18,71</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-18,65; 102,64</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>22,47; 233,65</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>20,92; 206,53</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>31,66; 221,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-28.33797858226139</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.86614068411868</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.16763774666361</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-2.512046562789558</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.7657050446611056</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.7129813711256996</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.912854011296409</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.94000888019362</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.8122751550417</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>27.97208159257211</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>8.495155018819116</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.431688189288408</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.016362014088243</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.994447558073155</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>11.29912008097642</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.2759172719613282</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.024042365330894</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9345083243580808</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.01369922079887</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.688356403344145</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.983234661921411</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.342616265623536</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>5.171310688502454</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2697123426650136</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.2019028311170203</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1778216048928021</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.3513292848363741</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.664758721210276</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.25137242107869</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.28245056664246</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>18.80164623656416</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.9665726505033044</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.456733833683471</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.06025856169178</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.215962930499261</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1015,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
